--- a/outputs/a/quote_types/list_q_pb.xlsx
+++ b/outputs/a/quote_types/list_q_pb.xlsx
@@ -11,22 +11,24 @@
     <sheet name="A02 vie saint barbre" sheetId="2" r:id="rId2"/>
     <sheet name="A03 vie saint basille" sheetId="3" r:id="rId3"/>
     <sheet name="A04 vie saint christofle" sheetId="4" r:id="rId4"/>
-    <sheet name="A06 saint jean evangeliste" sheetId="5" r:id="rId5"/>
-    <sheet name="A07 vie saint jean paulus" sheetId="6" r:id="rId6"/>
-    <sheet name="A08 vie glorieux confesseur" sheetId="7" r:id="rId7"/>
-    <sheet name="A09 vie saint leu" sheetId="8" r:id="rId8"/>
-    <sheet name="A11 vie saint sebastien" sheetId="9" r:id="rId9"/>
-    <sheet name="A12 miracle saint servais" sheetId="10" r:id="rId10"/>
-    <sheet name="A13 vie seint thibault" sheetId="11" r:id="rId11"/>
-    <sheet name="A16 guillaume angleterre" sheetId="12" r:id="rId12"/>
-    <sheet name="A17 robert deable" sheetId="13" r:id="rId13"/>
-    <sheet name="A18 richart sans peour" sheetId="14" r:id="rId14"/>
-    <sheet name="A19 elegy troyes" sheetId="15" r:id="rId15"/>
-    <sheet name="A20 vieillards tués" sheetId="16" r:id="rId16"/>
-    <sheet name="A21 mauvais riche homme" sheetId="17" r:id="rId17"/>
-    <sheet name="A22 jeu des dez" sheetId="18" r:id="rId18"/>
-    <sheet name="A23 roy avoit amie" sheetId="19" r:id="rId19"/>
-    <sheet name="A25 quatre sereurs" sheetId="20" r:id="rId20"/>
+    <sheet name="A05 vie sainte dieudonnee" sheetId="5" r:id="rId5"/>
+    <sheet name="A06 saint jean evangeliste" sheetId="6" r:id="rId6"/>
+    <sheet name="A07 vie saint jean paulus" sheetId="7" r:id="rId7"/>
+    <sheet name="A08 vie glorieux confesseur" sheetId="8" r:id="rId8"/>
+    <sheet name="A09 vie saint leu" sheetId="9" r:id="rId9"/>
+    <sheet name="A10 poines enfer" sheetId="10" r:id="rId10"/>
+    <sheet name="A11 vie saint sebastien" sheetId="11" r:id="rId11"/>
+    <sheet name="A12 miracle saint servais" sheetId="12" r:id="rId12"/>
+    <sheet name="A13 vie seint thibault" sheetId="13" r:id="rId13"/>
+    <sheet name="A16 guillaume angleterre" sheetId="14" r:id="rId14"/>
+    <sheet name="A17 robert deable" sheetId="15" r:id="rId15"/>
+    <sheet name="A18 richart sans peour" sheetId="16" r:id="rId16"/>
+    <sheet name="A19 elegy troyes" sheetId="17" r:id="rId17"/>
+    <sheet name="A20 vieillards tués" sheetId="18" r:id="rId18"/>
+    <sheet name="A21 mauvais riche homme" sheetId="19" r:id="rId19"/>
+    <sheet name="A22 jeu des dez" sheetId="20" r:id="rId20"/>
+    <sheet name="A23 roy avoit amie" sheetId="21" r:id="rId21"/>
+    <sheet name="A25 quatre sereurs" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -520,6 +522,76 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -573,9 +645,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -605,190 +677,210 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Avras et grans meschief mais Dieus qui sur tous vaut</t>
+          <t>Ne vous ne vostre pere (dont Dieus asoille l'ame!),</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Le te rendra moult bien” lors la vois s'en parti</t>
+          <t>Que vous le fassiez rendre.” Cil qui fu sans disfame,</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Et le roy d'Angleterre requist a Dieu merci</t>
+          <t>Li dist: “Je le weil bien, foy que doy Nostre Dame!”</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>286</v>
+        <v>169</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Que l'un de mes enfans mengier me covendra</t>
+          <t>Avras et grans meschief; mais Dieus, qui sur tous vaut,</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Se je n'ai char ou pain” lors le roy souspira</t>
+          <t>Le te rendra moult bien.” Lors la vois s'en parti;</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Il a traite s'espee sa chausce desferma</t>
+          <t>Et le roy d'Angleterre requist a Dieu merci,</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Se je vous voi couper ja se Dieu plest mes dens</t>
+          <t>Que l'un de mes enfans mengier me covendra,</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N'usseront vostre char” le roi qui fu dolens</t>
+          <t>Se je n'ai char ou pain.” Lors le roy souspira;</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Respondi douce suer ne puis trouver pourpens”</t>
+          <t>Il a traite s'espee, sa chausce desferma</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>444</v>
+        <v>295</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Forment prist apleurer et dist “Vierge Marie</t>
+          <t>Se je vous voi couper. Ja, se Dieu plest, mes dens</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Or ai je tout perdu” lors vint celle partie</t>
+          <t>N'usseront vostre char.” Le roi, qui fu dolens,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ou la bource au marchéant fu pendant demouree</t>
+          <t>Respondi: “Douce suer, ne puis trouver pourpens</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>592</v>
+        <v>444</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Doucement dist “Seingneur el non du dous ihesus</t>
+          <t>Forment prist a pleurer et dist: “Vierge Marie,</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Metez moi en vos nef” l'un d'eus a respondu</t>
+          <t>Or ai je tout perdu.” Lors vint celle partie</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>“Biaus amis dont viens tu moult as sousfert de paine</t>
+          <t>Ou la bource au marcheant fu pendant demouree,</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>686</v>
+        <v>592</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Je vous ai trop cousté dieu me doint vivre tant</t>
+          <t>Doucement dist: “Seingneur, el non du dous Jhesus,</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Que le vous puisse rendre” lors le preudon pleurant</t>
+          <t>Metez moi en vos nef.” L'un d'eus a respondu:</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Li fist donner .x. livres et un cheval courant</t>
+          <t>“Biaus amis, dont viens tu? Moult as sousfert de paine;</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>718</v>
+        <v>686</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Le fortier dist “Sire bersant vont par le bois</t>
+          <t>Je vous ai trop cousté: Dieu me doint vivre tant</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ceste beste ont tuee” le seingneur fu courtois</t>
+          <t>Que le vous puisse rendre.” Lors le preudon pleurant</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Il dist “Je leur pardoins pour Dieu a ceste fois</t>
+          <t>Li fist donner dix livres et un cheval courant;</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>797</v>
+        <v>718</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Se le roy revenoit de quoy vous me parlés</t>
+          <t>Le fortier dist: “Sire, bersant vont par le bois;</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Seroit il receus” son neveu dist errant</t>
+          <t>Ceste beste ont tuee.” Le seingneur fu courtois,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>“Ouil se Dieus me gart a sollanpnité grant</t>
+          <t>Il dist: “Je leur pardoins, pour Dieu, a ceste fois;</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>797</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Se le roy revenoit de quoy vous me parlés,</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Seroit il receus?” Son neveu dist errant:</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>“Ouïl, se Dieus me gart, a sollanpnité grant;</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
         <v>824</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cëans a tel jouel qui vault je vous afi</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Plus de tiex .xxx. anniaus” la dame respondi</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>“Je ne weil que l'annel” adont le roy li tant</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cëans a tel jouel qui vault, je vous afi,</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Plus de tiex trente anniaus.” La dame respondi:</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>“Je ne weil que l'annel.” Adont le roy li tant;</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -829,12 +921,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ou que ne m'apartiengne.” l'un d'euz dist sanz espasse</t>
+          <t>Ou que ne m'apartiengne.” L'un d'euz dist sanz espasse:</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>“Chier sire je sai telle; dont ja n'arez vergoigne</t>
+          <t>“Chier sire, je sai telle dont ja n'arez vergoigne;</t>
         </is>
       </c>
     </row>
@@ -844,17 +936,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Qui de cuer le verroie morir devant mes yex</t>
+          <t>Qui de cuer le verroie morir devant mes yex,</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Trop m'a fait de courous” lors parla .i. hons viex</t>
+          <t>Trop m'a fait de courous.” Lors parla uns hons viex</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Et dist “Sire je lo; que Robert soit mandez.</t>
+          <t>Et dist: “Sire, je lo que Robert soit mandez</t>
         </is>
       </c>
     </row>
@@ -864,26 +956,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La duchesse dist “Filz certes la coupe est moie</t>
+          <t>La duchesse dist: “Filz, certes la coupe est moie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>De vostre mauvaistie.” lors li conta la voie</t>
+          <t>De vostre mauvaistie.” Lors li conta la voie</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Comment elle l'avoit au dëable donné</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>Comment elle l'avoit au deable donné</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -938,7 +1030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -993,7 +1085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1048,7 +1140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1103,76 +1195,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
@@ -1230,6 +1252,76 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1395,6 +1487,61 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>436</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ma suer, bien vous en croi quant me proumetés tant,</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Si parleray a li.” Lors s'en parti atant.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Viers l'evesque se traist, qui vint apriés diner</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1428,7 +1575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1503,7 +1650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -1538,7 +1685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1591,39 +1738,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/outputs/a/quote_types/list_q_pb.xlsx
+++ b/outputs/a/quote_types/list_q_pb.xlsx
@@ -12,23 +12,24 @@
     <sheet name="A03 vie saint basille" sheetId="3" r:id="rId3"/>
     <sheet name="A04 vie saint christofle" sheetId="4" r:id="rId4"/>
     <sheet name="A05 vie sainte dieudonnee" sheetId="5" r:id="rId5"/>
-    <sheet name="A06 saint jean evangeliste" sheetId="6" r:id="rId6"/>
-    <sheet name="A07 vie saint jean paulus" sheetId="7" r:id="rId7"/>
-    <sheet name="A08 vie glorieux confesseur" sheetId="8" r:id="rId8"/>
-    <sheet name="A09 vie saint leu" sheetId="9" r:id="rId9"/>
-    <sheet name="A10 poines enfer" sheetId="10" r:id="rId10"/>
-    <sheet name="A11 vie saint sebastien" sheetId="11" r:id="rId11"/>
-    <sheet name="A12 miracle saint servais" sheetId="12" r:id="rId12"/>
-    <sheet name="A13 vie seint thibault" sheetId="13" r:id="rId13"/>
-    <sheet name="A16 guillaume angleterre" sheetId="14" r:id="rId14"/>
-    <sheet name="A17 robert deable" sheetId="15" r:id="rId15"/>
-    <sheet name="A18 richart sans peour" sheetId="16" r:id="rId16"/>
-    <sheet name="A19 elegy troyes" sheetId="17" r:id="rId17"/>
-    <sheet name="A20 vieillards tués" sheetId="18" r:id="rId18"/>
-    <sheet name="A21 mauvais riche homme" sheetId="19" r:id="rId19"/>
-    <sheet name="A22 jeu des dez" sheetId="20" r:id="rId20"/>
-    <sheet name="A23 roy avoit amie" sheetId="21" r:id="rId21"/>
-    <sheet name="A25 quatre sereurs" sheetId="22" r:id="rId22"/>
+    <sheet name="A06 vie saint gregoire" sheetId="6" r:id="rId6"/>
+    <sheet name="A07 saint jean evangeliste" sheetId="7" r:id="rId7"/>
+    <sheet name="A08 vie saint jean paulus" sheetId="8" r:id="rId8"/>
+    <sheet name="A09 vie glorieux confesseur" sheetId="9" r:id="rId9"/>
+    <sheet name="A10 vie saint leu" sheetId="10" r:id="rId10"/>
+    <sheet name="A11 poines enfer" sheetId="11" r:id="rId11"/>
+    <sheet name="A12 vie saint sebastien" sheetId="12" r:id="rId12"/>
+    <sheet name="A13 miracle saint servais" sheetId="13" r:id="rId13"/>
+    <sheet name="A14 vie seint thibault" sheetId="14" r:id="rId14"/>
+    <sheet name="A17 guillaume angleterre" sheetId="15" r:id="rId15"/>
+    <sheet name="A18 robert deable" sheetId="16" r:id="rId16"/>
+    <sheet name="A19 richart sans peour" sheetId="17" r:id="rId17"/>
+    <sheet name="A20 elegy troyes" sheetId="18" r:id="rId18"/>
+    <sheet name="A21 vieillards tués" sheetId="19" r:id="rId19"/>
+    <sheet name="A22 mauvais riche homme" sheetId="20" r:id="rId20"/>
+    <sheet name="A23 jeu des dez" sheetId="21" r:id="rId21"/>
+    <sheet name="A24 roy avoit amie" sheetId="22" r:id="rId22"/>
+    <sheet name="A26 quatre sereurs" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -487,6 +488,61 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>143</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Venez vous en a Sens, trop sommes esbahi.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dieu par nous le vous mande.” Le proudoms respondi:</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>“Jamez tant que je vive ne partiroy de cy,</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -520,7 +576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -555,7 +611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -590,7 +646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -645,7 +701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -880,7 +936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -975,7 +1031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1030,7 +1086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1085,7 +1141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1140,7 +1196,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>39</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Dist: “Pere, je vous prie que a mon appetit</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Me donnés ung seul don.” Et lors sans contredit</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Luy a dit: “Vous l'aurez, fille, sans nul respit.”</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1195,62 +1306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>39</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Dist: “Pere, je vous prie que a mon appetit</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Me donnés ung seul don.” Et lors sans contredit</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Luy a dit: “Vous l'aurez, fille, sans nul respit.”</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -1285,7 +1341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -1320,7 +1376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1577,6 +1633,41 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1650,7 +1741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -1683,59 +1774,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>143</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Venez vous en a Sens, trop sommes esbahi.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Dieu par nous le vous mande.” Le proudoms respondi:</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>“Jamez tant que je vive ne partiroy de cy,</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>